--- a/teaching/traditional_assets/database/data/russia/russia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.10695</v>
+        <v>0.1425</v>
       </c>
       <c r="E2">
-        <v>0.1495</v>
+        <v>0.26</v>
       </c>
       <c r="F2">
-        <v>0.08599999999999999</v>
+        <v>0.0786</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0007470747189336561</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0005922279818287035</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13128.95</v>
+        <v>12301.4</v>
       </c>
       <c r="L2">
-        <v>0.4087774304431215</v>
+        <v>0.3787260244450603</v>
       </c>
       <c r="M2">
-        <v>5735.546300000001</v>
+        <v>600.4409999999999</v>
       </c>
       <c r="N2">
-        <v>0.06024803122725159</v>
+        <v>0.006601822084027847</v>
       </c>
       <c r="O2">
-        <v>0.4368625289912751</v>
+        <v>0.04881078576422195</v>
       </c>
       <c r="P2">
-        <v>5462.884300000001</v>
+        <v>251.471</v>
       </c>
       <c r="Q2">
-        <v>0.05738390149466014</v>
+        <v>0.002764912458164194</v>
       </c>
       <c r="R2">
-        <v>0.4160945315505049</v>
+        <v>0.02044246996276846</v>
       </c>
       <c r="S2">
-        <v>272.6620000000004</v>
+        <v>348.97</v>
       </c>
       <c r="T2">
-        <v>0.04753897636568644</v>
+        <v>0.5811894923897603</v>
       </c>
       <c r="U2">
-        <v>59906.8</v>
+        <v>29479.8</v>
       </c>
       <c r="V2">
-        <v>0.6292803803405292</v>
+        <v>0.3241290895737036</v>
       </c>
       <c r="W2">
-        <v>0.1127215069372609</v>
+        <v>0.08451344190240588</v>
       </c>
       <c r="X2">
-        <v>0.1085978821892076</v>
+        <v>0.09781968335583077</v>
       </c>
       <c r="Y2">
-        <v>0.004123624748053334</v>
+        <v>-0.01330624145342489</v>
       </c>
       <c r="Z2">
-        <v>0.4632983774811379</v>
+        <v>0.2928902151421599</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05740822174258856</v>
+        <v>0.05274690759794379</v>
       </c>
       <c r="AC2">
-        <v>-0.05658872321601469</v>
+        <v>-0.05274690759794379</v>
       </c>
       <c r="AD2">
-        <v>57074.608</v>
+        <v>94165</v>
       </c>
       <c r="AE2">
-        <v>453.871234964118</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>57528.47923496411</v>
+        <v>94165</v>
       </c>
       <c r="AG2">
-        <v>-2378.320765035889</v>
+        <v>64685.2</v>
       </c>
       <c r="AH2">
-        <v>0.3766743037373749</v>
+        <v>0.5086815928191976</v>
       </c>
       <c r="AI2">
-        <v>0.4369881760869296</v>
+        <v>0.5049202444250457</v>
       </c>
       <c r="AJ2">
-        <v>-0.0256227744390116</v>
+        <v>0.4156184944357346</v>
       </c>
       <c r="AK2">
-        <v>-0.03315154191582272</v>
+        <v>0.4119682832850364</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>854.6661874812818</v>
-      </c>
-      <c r="AP2">
-        <v>-35.61426722126219</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Public joint-stock commercial bank Primorye (MISX:PRMB)</t>
+          <t>AVANGARD Joint Stock BANK (MISX:AVAN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0285</v>
+        <v>0.111</v>
       </c>
       <c r="E3">
-        <v>-0.297</v>
+        <v>0.179</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,28 +734,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L3">
-        <v>0.06183745583038869</v>
+        <v>0.3724373576309796</v>
       </c>
       <c r="M3">
-        <v>3.82</v>
+        <v>69.5</v>
       </c>
       <c r="N3">
-        <v>0.06507666098807495</v>
+        <v>0.06153165117308543</v>
       </c>
       <c r="O3">
-        <v>2.182857142857143</v>
+        <v>1.062691131498471</v>
       </c>
       <c r="P3">
-        <v>3.82</v>
+        <v>69.5</v>
       </c>
       <c r="Q3">
-        <v>0.06507666098807495</v>
+        <v>0.06153165117308543</v>
       </c>
       <c r="R3">
-        <v>2.182857142857143</v>
+        <v>1.062691131498471</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,55 +764,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>57.7</v>
+        <v>291.8</v>
       </c>
       <c r="V3">
-        <v>0.9829642248722317</v>
+        <v>0.2583444001770695</v>
       </c>
       <c r="W3">
-        <v>0.0343811394891945</v>
+        <v>0.1616411270390509</v>
       </c>
       <c r="X3">
-        <v>0.04918323675078164</v>
+        <v>0.04393467918771758</v>
       </c>
       <c r="Y3">
-        <v>-0.01480209726158713</v>
+        <v>0.1177064478513333</v>
       </c>
       <c r="Z3">
-        <v>2.478108581436077</v>
+        <v>1.167553191489361</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0491213979275085</v>
+        <v>0.04344059594643335</v>
       </c>
       <c r="AC3">
-        <v>-0.0491213979275085</v>
+        <v>-0.04344059594643335</v>
       </c>
       <c r="AD3">
-        <v>0.908</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.908</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="AG3">
-        <v>-56.792</v>
+        <v>-214.7</v>
       </c>
       <c r="AH3">
-        <v>0.0152328546503825</v>
+        <v>0.06389855793137743</v>
       </c>
       <c r="AI3">
-        <v>0.0174588524842332</v>
+        <v>0.1860072376357056</v>
       </c>
       <c r="AJ3">
-        <v>-29.76519916142556</v>
+        <v>-0.2346961084390031</v>
       </c>
       <c r="AK3">
-        <v>9.977512297962052</v>
+        <v>-1.749796251018746</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AVANGARD Joint Stock BANK (MISX:AVAN)</t>
+          <t>Public joint-stock commercial bank Primorye (MISX:PRMB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,10 +838,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.169</v>
-      </c>
-      <c r="E4">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89.40000000000001</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>0.4185393258426967</v>
+        <v>0.4229607250755287</v>
       </c>
       <c r="M4">
-        <v>38.1711</v>
+        <v>0.005</v>
       </c>
       <c r="N4">
-        <v>0.0458016558675306</v>
+        <v>6.165228113440198e-05</v>
       </c>
       <c r="O4">
-        <v>0.4269697986577181</v>
+        <v>0.0003571428571428571</v>
       </c>
       <c r="P4">
-        <v>38.1711</v>
+        <v>0.005</v>
       </c>
       <c r="Q4">
-        <v>0.0458016558675306</v>
+        <v>6.165228113440198e-05</v>
       </c>
       <c r="R4">
-        <v>0.4269697986577181</v>
+        <v>0.0003571428571428571</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>365</v>
+        <v>55.7</v>
       </c>
       <c r="V4">
-        <v>0.4379649628029758</v>
+        <v>0.686806411837238</v>
       </c>
       <c r="W4">
-        <v>0.2452002194185409</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="X4">
-        <v>0.05032351493302607</v>
+        <v>0.04463575425738515</v>
       </c>
       <c r="Y4">
-        <v>0.1948767044855148</v>
+        <v>0.2293368484823409</v>
       </c>
       <c r="Z4">
-        <v>-1.219178082191781</v>
+        <v>-5.815179198875615</v>
       </c>
       <c r="AA4">
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.05001260349764695</v>
+        <v>0.04390448129720737</v>
       </c>
       <c r="AC4">
-        <v>-0.05001260349764695</v>
+        <v>-0.04390448129720737</v>
       </c>
       <c r="AD4">
-        <v>53</v>
+        <v>7.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>53</v>
+        <v>7.7</v>
       </c>
       <c r="AG4">
-        <v>-312</v>
+        <v>-48</v>
       </c>
       <c r="AH4">
-        <v>0.05979241877256318</v>
+        <v>0.08671171171171171</v>
       </c>
       <c r="AI4">
-        <v>0.1130063965884861</v>
+        <v>0.1205007824726134</v>
       </c>
       <c r="AJ4">
-        <v>-0.5983889528193326</v>
+        <v>-1.450151057401813</v>
       </c>
       <c r="AK4">
-        <v>-3</v>
+        <v>-5.853658536585364</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -966,13 +957,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.139</v>
+        <v>0.141</v>
       </c>
       <c r="E5">
-        <v>0.192</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.08599999999999999</v>
+        <v>0.0786</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,103 +972,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.001399580776193779</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.0011155999076313</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12485.3</v>
+        <v>9922.700000000001</v>
       </c>
       <c r="L5">
-        <v>0.4247292989838719</v>
+        <v>0.4257828926478035</v>
       </c>
       <c r="M5">
-        <v>5517.700000000001</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.06243366486755605</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.4419357164024894</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>5286.6</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.05981873111782478</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.4234259489159252</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>231.1000000000004</v>
-      </c>
-      <c r="T5">
-        <v>0.04188339344292012</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>40600.8</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4594045962184732</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.2235862115896714</v>
+        <v>0.1514333416761796</v>
       </c>
       <c r="X5">
-        <v>0.05914540136617198</v>
+        <v>0.05559250865381288</v>
       </c>
       <c r="Y5">
-        <v>0.1644408102234994</v>
+        <v>0.09584083302236668</v>
       </c>
       <c r="Z5">
-        <v>0.4636898382574331</v>
+        <v>0.3702416263267683</v>
       </c>
       <c r="AA5">
-        <v>-0.0005172923407295646</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05250845552181006</v>
+        <v>0.04723882720341399</v>
       </c>
       <c r="AC5">
-        <v>-0.05302574786253962</v>
+        <v>-0.04723882720341399</v>
       </c>
       <c r="AD5">
-        <v>38212.5</v>
+        <v>40333.6</v>
       </c>
       <c r="AE5">
-        <v>313.7096826945736</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>38526.20968269457</v>
+        <v>40333.6</v>
       </c>
       <c r="AG5">
-        <v>-2074.590317305432</v>
+        <v>40333.6</v>
       </c>
       <c r="AH5">
-        <v>0.3035873543232239</v>
+        <v>0.3386151348211033</v>
       </c>
       <c r="AI5">
-        <v>0.3701791130234907</v>
+        <v>0.3934793424710989</v>
       </c>
       <c r="AJ5">
-        <v>-0.02403861404256284</v>
+        <v>0.3386151348211033</v>
       </c>
       <c r="AK5">
-        <v>-0.03268424561407109</v>
+        <v>0.3934793424710989</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1769.097222222222</v>
-      </c>
-      <c r="AP5">
-        <v>-96.04584802339963</v>
       </c>
     </row>
     <row r="6">
@@ -1097,10 +1079,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0389</v>
-      </c>
-      <c r="E6">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1109,25 +1088,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01012106087368137</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.007888158177748269</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>183.7</v>
+        <v>198.1</v>
       </c>
       <c r="L6">
-        <v>0.2210855698640029</v>
+        <v>0.2809530563040703</v>
       </c>
       <c r="M6">
-        <v>0.262</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.0001348846787479407</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.001426238432226456</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1139,73 +1118,64 @@
         <v>-0</v>
       </c>
       <c r="S6">
-        <v>0.262</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3720.6</v>
+        <v>3513.8</v>
       </c>
       <c r="V6">
-        <v>1.915465403624382</v>
+        <v>2.152799901972798</v>
       </c>
       <c r="W6">
-        <v>0.08050308953065427</v>
+        <v>0.07580163771332364</v>
       </c>
       <c r="X6">
-        <v>0.08227891539282757</v>
+        <v>0.07849082426283917</v>
       </c>
       <c r="Y6">
-        <v>-0.0017758258621733</v>
+        <v>-0.002689186549515526</v>
       </c>
       <c r="Z6">
-        <v>0.207779435479781</v>
+        <v>0.4547272023732746</v>
       </c>
       <c r="AA6">
-        <v>0.001638997053147753</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05593609184530819</v>
+        <v>0.0508795047134576</v>
       </c>
       <c r="AC6">
-        <v>-0.05429709479216044</v>
+        <v>-0.0508795047134576</v>
       </c>
       <c r="AD6">
-        <v>2657.8</v>
+        <v>2258.2</v>
       </c>
       <c r="AE6">
-        <v>85.45205260029077</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2743.252052600291</v>
+        <v>2258.2</v>
       </c>
       <c r="AG6">
-        <v>-977.347947399709</v>
+        <v>-1255.6</v>
       </c>
       <c r="AH6">
-        <v>0.5854579089110831</v>
+        <v>0.5804544519843718</v>
       </c>
       <c r="AI6">
-        <v>0.5121206353637675</v>
+        <v>0.4870484201445055</v>
       </c>
       <c r="AJ6">
-        <v>-1.012741172630313</v>
+        <v>-3.334041423260758</v>
       </c>
       <c r="AK6">
-        <v>-0.597381938946467</v>
+        <v>-1.118375345150085</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>104.2274509803922</v>
-      </c>
-      <c r="AP6">
-        <v>-38.3273704862631</v>
       </c>
     </row>
     <row r="7">
@@ -1225,10 +1195,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.07490000000000001</v>
+        <v>0.132</v>
       </c>
       <c r="E7">
-        <v>0.0231</v>
+        <v>0.21</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,85 +1213,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>124.1</v>
+        <v>112.7</v>
       </c>
       <c r="L7">
-        <v>0.3195159629248198</v>
+        <v>0.3207171314741036</v>
       </c>
       <c r="M7">
-        <v>37.9932</v>
+        <v>8.27</v>
       </c>
       <c r="N7">
-        <v>0.08578279521336646</v>
+        <v>0.02482737916541579</v>
       </c>
       <c r="O7">
-        <v>0.3061498791297341</v>
+        <v>0.07338065661047027</v>
       </c>
       <c r="P7">
-        <v>27.7932</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.06275276586136826</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.2239580983078163</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>10.2</v>
+        <v>8.27</v>
       </c>
       <c r="T7">
-        <v>0.2684690944695367</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>904.2</v>
+        <v>577</v>
       </c>
       <c r="V7">
-        <v>2.041544366674193</v>
+        <v>1.732212548784149</v>
       </c>
       <c r="W7">
-        <v>0.1113703670465763</v>
+        <v>0.09322524609148812</v>
       </c>
       <c r="X7">
-        <v>0.1625385824761542</v>
+        <v>0.1691051913910289</v>
       </c>
       <c r="Y7">
-        <v>-0.05116821542957792</v>
+        <v>-0.07587994529954077</v>
       </c>
       <c r="Z7">
-        <v>0.1655301738833958</v>
+        <v>0.144579304669821</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05888035163986893</v>
+        <v>0.05461431048242997</v>
       </c>
       <c r="AC7">
-        <v>-0.05888035163986893</v>
+        <v>-0.05461431048242997</v>
       </c>
       <c r="AD7">
-        <v>2125.8</v>
+        <v>1609.7</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>2125.8</v>
+        <v>1609.7</v>
       </c>
       <c r="AG7">
-        <v>1221.6</v>
+        <v>1032.7</v>
       </c>
       <c r="AH7">
-        <v>0.8275781523727955</v>
+        <v>0.8285464278361128</v>
       </c>
       <c r="AI7">
-        <v>0.6364099033020987</v>
+        <v>0.5908890683503415</v>
       </c>
       <c r="AJ7">
-        <v>0.7339140883148093</v>
+        <v>0.7561136330355834</v>
       </c>
       <c r="AK7">
-        <v>0.5014572472394401</v>
+        <v>0.4809519374068555</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1338,7 +1308,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Public joint stock company Moscovskiy Oblastnoi Bank (MISX:MOBB)</t>
+          <t>VTB Bank (public joint-stock company) (LSE:VTBR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1346,95 +1316,101 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.142</v>
+      </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-273.6</v>
+        <v>1788.8</v>
       </c>
       <c r="L8">
-        <v>1.527638190954774</v>
+        <v>0.2553312969254046</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>374.266</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.06052656262634429</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.2092274150268336</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>129.566</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.0209535052963532</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.07243179785330948</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>244.7</v>
+      </c>
+      <c r="T8">
+        <v>0.6538130634361656</v>
       </c>
       <c r="U8">
-        <v>101.4</v>
+        <v>14436.6</v>
       </c>
       <c r="V8">
-        <v>0.5745042492917848</v>
+        <v>2.33469717797364</v>
       </c>
       <c r="W8">
-        <v>-3.662650602409639</v>
+        <v>0.07254470169803592</v>
       </c>
       <c r="X8">
-        <v>0.2096230271445008</v>
+        <v>0.1822042814252955</v>
       </c>
       <c r="Y8">
-        <v>-3.872273629554139</v>
+        <v>-0.1096595797272596</v>
       </c>
       <c r="Z8">
-        <v>-0.2816480578707344</v>
+        <v>0.1724156601006074</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06359901774427615</v>
+        <v>0.06236232750930285</v>
       </c>
       <c r="AC8">
-        <v>-0.06359901774427615</v>
+        <v>-0.06236232750930285</v>
       </c>
       <c r="AD8">
-        <v>1197.9</v>
+        <v>32964.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1197.9</v>
+        <v>32964.6</v>
       </c>
       <c r="AG8">
-        <v>1096.5</v>
+        <v>18528</v>
       </c>
       <c r="AH8">
-        <v>0.8715803259604191</v>
+        <v>0.8420485285365062</v>
       </c>
       <c r="AI8">
-        <v>1.269365264384868</v>
+        <v>0.5976275900078137</v>
       </c>
       <c r="AJ8">
-        <v>0.861351139041634</v>
+        <v>0.7497723731865731</v>
       </c>
       <c r="AK8">
-        <v>1.301792710435712</v>
+        <v>0.4549818896187611</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1460,10 +1436,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.191</v>
+        <v>0.328</v>
       </c>
       <c r="E9">
-        <v>0.166</v>
+        <v>0.879</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1472,103 +1448,97 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009041949578122866</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.007353628288287663</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>319.7</v>
+        <v>221.2</v>
       </c>
       <c r="L9">
-        <v>0.3894980506822612</v>
+        <v>0.366832504145937</v>
       </c>
       <c r="M9">
-        <v>137.6</v>
+        <v>148.4</v>
       </c>
       <c r="N9">
-        <v>0.04862362627654687</v>
+        <v>0.05988700564971752</v>
       </c>
       <c r="O9">
-        <v>0.4304035032843291</v>
+        <v>0.6708860759493671</v>
       </c>
       <c r="P9">
-        <v>106.5</v>
+        <v>52.4</v>
       </c>
       <c r="Q9">
-        <v>0.03763383865154245</v>
+        <v>0.02114608555286521</v>
       </c>
       <c r="R9">
-        <v>0.3331248045042227</v>
+        <v>0.2368896925858951</v>
       </c>
       <c r="S9">
-        <v>31.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="T9">
-        <v>0.2260174418604651</v>
+        <v>0.6469002695417789</v>
       </c>
       <c r="U9">
-        <v>12782.9</v>
+        <v>9709.200000000001</v>
       </c>
       <c r="V9">
-        <v>4.517085409378423</v>
+        <v>3.9181598062954</v>
       </c>
       <c r="W9">
-        <v>0.1140726468279455</v>
+        <v>0.0721155413555896</v>
       </c>
       <c r="X9">
-        <v>0.1402947995673316</v>
+        <v>0.2113753612553617</v>
       </c>
       <c r="Y9">
-        <v>-0.02622215273938609</v>
+        <v>-0.139259819899772</v>
       </c>
       <c r="Z9">
-        <v>-0.2329893265656474</v>
+        <v>0.5160462130937091</v>
       </c>
       <c r="AA9">
-        <v>-0.001713316902702237</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.07150154867715301</v>
+        <v>0.0718871293440202</v>
       </c>
       <c r="AC9">
-        <v>-0.07321486557985525</v>
+        <v>-0.0718871293440202</v>
       </c>
       <c r="AD9">
-        <v>10884.1</v>
+        <v>15961.7</v>
       </c>
       <c r="AE9">
-        <v>41.89183893138377</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>10925.99183893138</v>
+        <v>15961.7</v>
       </c>
       <c r="AG9">
-        <v>-1856.908161068615</v>
+        <v>6252.5</v>
       </c>
       <c r="AH9">
-        <v>0.7942772425710031</v>
+        <v>0.865616034968031</v>
       </c>
       <c r="AI9">
-        <v>0.7808021132335479</v>
+        <v>0.8486880233949223</v>
       </c>
       <c r="AJ9">
-        <v>-1.908451938412984</v>
+        <v>0.7161674589084245</v>
       </c>
       <c r="AK9">
-        <v>-1.53413803806544</v>
+        <v>0.6872162931536662</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>688.867088607595</v>
-      </c>
-      <c r="AP9">
-        <v>-117.5258329790263</v>
       </c>
     </row>
     <row r="10">
@@ -1587,6 +1557,9 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>2.052</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1594,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002127452896616072</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.001675559560580678</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>198.6</v>
+        <v>-21.5</v>
       </c>
       <c r="L10">
-        <v>0.3209437621202327</v>
+        <v>-0.0710978835978836</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1612,7 +1585,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1621,73 +1594,67 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1374.2</v>
+        <v>895.7</v>
       </c>
       <c r="V10">
-        <v>2.553800408845939</v>
+        <v>2.684952038369305</v>
       </c>
       <c r="W10">
-        <v>0.1530635838150289</v>
+        <v>-0.01474622770919067</v>
       </c>
       <c r="X10">
-        <v>0.1349168489855876</v>
+        <v>0.1171485424488224</v>
       </c>
       <c r="Y10">
-        <v>0.01814673482944132</v>
+        <v>-0.131894770158013</v>
       </c>
       <c r="Z10">
-        <v>0.2349619723565449</v>
+        <v>0.1492301618634031</v>
       </c>
       <c r="AA10">
-        <v>0.0003936927791549017</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07913103982456282</v>
+        <v>0.0762189155618668</v>
       </c>
       <c r="AC10">
-        <v>-0.07873734704540791</v>
+        <v>-0.0762189155618668</v>
       </c>
       <c r="AD10">
-        <v>1942.6</v>
+        <v>952.4</v>
       </c>
       <c r="AE10">
-        <v>12.81766073786987</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1955.41766073787</v>
+        <v>952.4</v>
       </c>
       <c r="AG10">
-        <v>581.2176607378697</v>
+        <v>56.69999999999993</v>
       </c>
       <c r="AH10">
-        <v>0.7842004456303838</v>
+        <v>0.7405909797822706</v>
       </c>
       <c r="AI10">
-        <v>0.5720576788301321</v>
+        <v>0.4360606199349847</v>
       </c>
       <c r="AJ10">
-        <v>0.5192606899052437</v>
+        <v>0.1452728670253649</v>
       </c>
       <c r="AK10">
-        <v>0.2843506061136751</v>
+        <v>0.04400807202732065</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>500.6701030927835</v>
-      </c>
-      <c r="AP10">
-        <v>149.798366169554</v>
       </c>
     </row>
   </sheetData>
